--- a/results/acl-en/xlm-roberta/results_pos.xlsx
+++ b/results/acl-en/xlm-roberta/results_pos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aturt\Documents\typology_of_crosslingual\results\acl-en\xlm-roberta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,6 +24,9 @@
     <t>Language</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>German</t>
   </si>
   <si>
@@ -68,9 +76,6 @@
   </si>
   <si>
     <t>Maltese</t>
-  </si>
-  <si>
-    <t>English</t>
   </si>
   <si>
     <t>Thai</t>
@@ -82,8 +87,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,11 +151,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +237,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +272,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,14 +448,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,1184 +516,1184 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5105981211348724</v>
+        <v>0.95510485997739547</v>
       </c>
       <c r="C2">
-        <v>0.8630977670773734</v>
+        <v>0.41184227050106742</v>
       </c>
       <c r="D2">
-        <v>0.7869045933059529</v>
+        <v>0.85972623383147051</v>
       </c>
       <c r="E2">
-        <v>0.6463673700608978</v>
+        <v>0.77502197664196915</v>
       </c>
       <c r="F2">
-        <v>0.8137185478921777</v>
+        <v>0.64699233957051361</v>
       </c>
       <c r="G2">
-        <v>0.655147996034556</v>
+        <v>0.78801959060655535</v>
       </c>
       <c r="H2">
-        <v>0.5702214039560024</v>
+        <v>0.64887605173929419</v>
       </c>
       <c r="I2">
-        <v>0.7958268422791861</v>
+        <v>0.57616476202436273</v>
       </c>
       <c r="J2">
-        <v>0.7076901288769296</v>
+        <v>0.80170789903302775</v>
       </c>
       <c r="K2">
-        <v>0.6349903224283624</v>
+        <v>0.72347105362300645</v>
       </c>
       <c r="L2">
-        <v>0.5907095312278714</v>
+        <v>0.6515760391812131</v>
       </c>
       <c r="M2">
-        <v>0.5190482934428551</v>
+        <v>0.58884842396081882</v>
       </c>
       <c r="N2">
-        <v>0.6685549733276684</v>
+        <v>0.51431621248273263</v>
       </c>
       <c r="O2">
-        <v>0.6469810697257234</v>
+        <v>0.65823182217757126</v>
       </c>
       <c r="P2">
-        <v>0.7884152386347543</v>
+        <v>0.65006906944618859</v>
       </c>
       <c r="Q2">
-        <v>0.6932445829202663</v>
+        <v>0.77841265854577424</v>
       </c>
       <c r="R2">
-        <v>0.3643959779068121</v>
+        <v>0.6902549290468416</v>
       </c>
       <c r="S2">
-        <v>0.9466081291601756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>0.34509606932060782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9042803712425543</v>
+        <v>0.83973333333333333</v>
       </c>
       <c r="C3">
-        <v>0.8226439488387126</v>
+        <v>0.97871877399999996</v>
       </c>
       <c r="D3">
-        <v>0.7632636099182712</v>
+        <v>0.81036015299999997</v>
       </c>
       <c r="E3">
-        <v>0.8141478505794894</v>
+        <v>0.73371647500000003</v>
       </c>
       <c r="F3">
-        <v>0.8193193886503209</v>
+        <v>0.85489348700000001</v>
       </c>
       <c r="G3">
-        <v>0.6413168952301797</v>
+        <v>0.80654099599999995</v>
       </c>
       <c r="H3">
-        <v>0.5425959274137693</v>
+        <v>0.64673103399999998</v>
       </c>
       <c r="I3">
-        <v>0.752274091517754</v>
+        <v>0.55739157100000003</v>
       </c>
       <c r="J3">
-        <v>0.6939557648797156</v>
+        <v>0.70211800800000002</v>
       </c>
       <c r="K3">
-        <v>0.6444105831832664</v>
+        <v>0.68326130299999999</v>
       </c>
       <c r="L3">
-        <v>0.598051438334026</v>
+        <v>0.62637854400000004</v>
       </c>
       <c r="M3">
-        <v>0.5526157824260054</v>
+        <v>0.58102988499999997</v>
       </c>
       <c r="N3">
-        <v>0.6839820843145403</v>
+        <v>0.53822835199999997</v>
       </c>
       <c r="O3">
-        <v>0.6508288313247449</v>
+        <v>0.67488429100000003</v>
       </c>
       <c r="P3">
-        <v>0.7581382462945007</v>
+        <v>0.64718467400000002</v>
       </c>
       <c r="Q3">
-        <v>0.6963568361268874</v>
+        <v>0.73836628400000004</v>
       </c>
       <c r="R3">
-        <v>0.4888026965877084</v>
+        <v>0.68235402300000003</v>
       </c>
       <c r="S3">
-        <v>0.8516876760400794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>0.50521379300000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8137841023913776</v>
+        <v>0.87839245468835814</v>
       </c>
       <c r="C4">
-        <v>0.8960929605927922</v>
+        <v>0.82568512000000005</v>
       </c>
       <c r="D4">
-        <v>0.8161839003031324</v>
+        <v>0.986913127</v>
       </c>
       <c r="E4">
-        <v>0.8508336140114516</v>
+        <v>0.86333592199999998</v>
       </c>
       <c r="F4">
-        <v>0.7980801616705961</v>
+        <v>0.88649836199999998</v>
       </c>
       <c r="G4">
-        <v>0.5787302121926574</v>
+        <v>0.784416962</v>
       </c>
       <c r="H4">
-        <v>0.5846244526776693</v>
+        <v>0.581504138</v>
       </c>
       <c r="I4">
-        <v>0.7593465813405187</v>
+        <v>0.58214806500000005</v>
       </c>
       <c r="J4">
-        <v>0.5955708992926911</v>
+        <v>0.83271150199999999</v>
       </c>
       <c r="K4">
-        <v>0.5741411249578983</v>
+        <v>0.62604874899999996</v>
       </c>
       <c r="L4">
-        <v>0.515998652745032</v>
+        <v>0.58966686199999996</v>
       </c>
       <c r="M4">
-        <v>0.5028629168070057</v>
+        <v>0.52040681</v>
       </c>
       <c r="N4">
-        <v>0.6033597170764567</v>
+        <v>0.49495274700000003</v>
       </c>
       <c r="O4">
-        <v>0.6574604243853149</v>
+        <v>0.62426848000000001</v>
       </c>
       <c r="P4">
-        <v>0.7649461098012799</v>
+        <v>0.65163538600000004</v>
       </c>
       <c r="Q4">
-        <v>0.7121505557426743</v>
+        <v>0.75441753</v>
       </c>
       <c r="R4">
-        <v>0.4090602896598181</v>
+        <v>0.706160868</v>
       </c>
       <c r="S4">
-        <v>0.8683058268777366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>0.40243556000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8269112680380718</v>
+        <v>0.85147374884863369</v>
       </c>
       <c r="C5">
-        <v>0.8875498925391464</v>
+        <v>0.82691126800000003</v>
       </c>
       <c r="D5">
-        <v>0.9636935830518882</v>
+        <v>0.88754989299999998</v>
       </c>
       <c r="E5">
-        <v>0.856002456248081</v>
+        <v>0.96369358299999996</v>
       </c>
       <c r="F5">
-        <v>0.8171630334663801</v>
+        <v>0.85600245600000002</v>
       </c>
       <c r="G5">
-        <v>0.68360454405895</v>
+        <v>0.81716303300000004</v>
       </c>
       <c r="H5">
-        <v>0.6137549892539147</v>
+        <v>0.68360454400000004</v>
       </c>
       <c r="I5">
-        <v>0.762818544673012</v>
+        <v>0.61375498900000003</v>
       </c>
       <c r="J5">
-        <v>0.7866134479582437</v>
+        <v>0.76197420900000001</v>
       </c>
       <c r="K5">
-        <v>0.7462388701258827</v>
+        <v>0.78661344799999999</v>
       </c>
       <c r="L5">
-        <v>0.618053423395763</v>
+        <v>0.74623887</v>
       </c>
       <c r="M5">
-        <v>0.6328676696346331</v>
+        <v>0.61805342299999999</v>
       </c>
       <c r="N5">
-        <v>0.7411728584587043</v>
+        <v>0.63286766999999999</v>
       </c>
       <c r="O5">
-        <v>0.7724132637396377</v>
+        <v>0.74117285799999999</v>
       </c>
       <c r="P5">
-        <v>0.7645072152287381</v>
+        <v>0.77241326399999999</v>
       </c>
       <c r="Q5">
-        <v>0.7322689591648757</v>
+        <v>0.76450721499999996</v>
       </c>
       <c r="R5">
-        <v>0.6486797666564323</v>
+        <v>0.732268959</v>
       </c>
       <c r="S5">
-        <v>0.8514737488486337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>0.64867976699999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8674831475672429</v>
+        <v>0.90035373423212972</v>
       </c>
       <c r="C6">
-        <v>0.8573383167589935</v>
+        <v>0.86748314800000004</v>
       </c>
       <c r="D6">
-        <v>0.7851231395581659</v>
+        <v>0.85733831699999996</v>
       </c>
       <c r="E6">
-        <v>0.9770740172195155</v>
+        <v>0.78512314000000005</v>
       </c>
       <c r="F6">
-        <v>0.8065474204097978</v>
+        <v>0.97707401699999996</v>
       </c>
       <c r="G6">
-        <v>0.6814389641593807</v>
+        <v>0.80654742000000001</v>
       </c>
       <c r="H6">
-        <v>0.5748514983648134</v>
+        <v>0.68143896400000004</v>
       </c>
       <c r="I6">
-        <v>0.8159247146766335</v>
+        <v>0.57485149800000002</v>
       </c>
       <c r="J6">
-        <v>0.7490155509577521</v>
+        <v>0.78972835900000005</v>
       </c>
       <c r="K6">
-        <v>0.6452980044049923</v>
+        <v>0.74901555099999995</v>
       </c>
       <c r="L6">
-        <v>0.5827270907027965</v>
+        <v>0.64529800400000004</v>
       </c>
       <c r="M6">
-        <v>0.5233264366281786</v>
+        <v>0.58272709099999997</v>
       </c>
       <c r="N6">
-        <v>0.6628178602416072</v>
+        <v>0.52332643700000003</v>
       </c>
       <c r="O6">
-        <v>0.6919842488153241</v>
+        <v>0.66281785999999998</v>
       </c>
       <c r="P6">
-        <v>0.7884936261095908</v>
+        <v>0.691984249</v>
       </c>
       <c r="Q6">
-        <v>0.6943536007475138</v>
+        <v>0.78849362599999995</v>
       </c>
       <c r="R6">
-        <v>0.4543482613628779</v>
+        <v>0.69435360099999999</v>
       </c>
       <c r="S6">
-        <v>0.9003537342321297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>0.45434826099999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8221937374107307</v>
+        <v>0.83537813587255083</v>
       </c>
       <c r="C7">
-        <v>0.8205456876030031</v>
+        <v>0.82219373699999998</v>
       </c>
       <c r="D7">
-        <v>0.7781541842153452</v>
+        <v>0.82054568800000005</v>
       </c>
       <c r="E7">
-        <v>0.7795275590551181</v>
+        <v>0.77815418400000003</v>
       </c>
       <c r="F7">
-        <v>0.9749130195934811</v>
+        <v>0.77952755900000004</v>
       </c>
       <c r="G7">
-        <v>0.582219373741073</v>
+        <v>0.97491302000000002</v>
       </c>
       <c r="H7">
-        <v>0.4966123420618934</v>
+        <v>0.58221937400000001</v>
       </c>
       <c r="I7">
-        <v>0.6662699139351768</v>
+        <v>0.49661234199999998</v>
       </c>
       <c r="J7">
-        <v>0.6705731550997985</v>
+        <v>0.69181468599999996</v>
       </c>
       <c r="K7">
-        <v>0.6035524629188793</v>
+        <v>0.67057315500000003</v>
       </c>
       <c r="L7">
-        <v>0.5451382530672038</v>
+        <v>0.60355246299999998</v>
       </c>
       <c r="M7">
-        <v>0.4956052005127266</v>
+        <v>0.54513825299999996</v>
       </c>
       <c r="N7">
-        <v>0.6399011170115364</v>
+        <v>0.495605201</v>
       </c>
       <c r="O7">
-        <v>0.6653543307086615</v>
+        <v>0.63990111699999996</v>
       </c>
       <c r="P7">
-        <v>0.7207471159128365</v>
+        <v>0.66535433099999997</v>
       </c>
       <c r="Q7">
-        <v>0.6539095403772203</v>
+        <v>0.72074711599999997</v>
       </c>
       <c r="R7">
-        <v>0.4848013184398462</v>
+        <v>0.65390954000000001</v>
       </c>
       <c r="S7">
-        <v>0.8353781358725508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>0.48480131799999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.5361662386177912</v>
+        <v>0.67790542790542796</v>
       </c>
       <c r="C8">
-        <v>0.4161568993696008</v>
+        <v>0.53488178500000005</v>
       </c>
       <c r="D8">
-        <v>0.3770254494513192</v>
+        <v>0.44089244100000002</v>
       </c>
       <c r="E8">
-        <v>0.6134485173943498</v>
+        <v>0.36771561800000002</v>
       </c>
       <c r="F8">
-        <v>0.6109269203829092</v>
+        <v>0.62054612099999995</v>
       </c>
       <c r="G8">
-        <v>0.9408825589540042</v>
+        <v>0.61038961000000003</v>
       </c>
       <c r="H8">
-        <v>0.4914779360261499</v>
+        <v>0.96386946399999995</v>
       </c>
       <c r="I8">
-        <v>0.6161568993696007</v>
+        <v>0.52822177800000003</v>
       </c>
       <c r="J8">
-        <v>0.5790333878122811</v>
+        <v>0.57101232099999999</v>
       </c>
       <c r="K8">
-        <v>0.5583469530702778</v>
+        <v>0.59948384899999996</v>
       </c>
       <c r="L8">
-        <v>0.6368900303525566</v>
+        <v>0.58158508200000003</v>
       </c>
       <c r="M8">
-        <v>0.6375904739668457</v>
+        <v>0.64244089199999999</v>
       </c>
       <c r="N8">
-        <v>0.5053934158300257</v>
+        <v>0.650682651</v>
       </c>
       <c r="O8">
-        <v>0.5317300957272939</v>
+        <v>0.523143523</v>
       </c>
       <c r="P8">
-        <v>0.6628531403222041</v>
+        <v>0.50924075899999999</v>
       </c>
       <c r="Q8">
-        <v>0.5795937427037123</v>
+        <v>0.66441891399999997</v>
       </c>
       <c r="R8">
-        <v>0.45991127714219</v>
+        <v>0.57775557799999999</v>
       </c>
       <c r="S8">
-        <v>0.6855475134251693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>0.47569097599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.45211208699289</v>
+        <v>0.61982434127979924</v>
       </c>
       <c r="C9">
-        <v>0.6002509410288582</v>
+        <v>0.452112087</v>
       </c>
       <c r="D9">
-        <v>0.6163948138854036</v>
+        <v>0.60025094099999998</v>
       </c>
       <c r="E9">
-        <v>0.6167294019238813</v>
+        <v>0.61639481399999996</v>
       </c>
       <c r="F9">
-        <v>0.5899623588456713</v>
+        <v>0.61672940200000004</v>
       </c>
       <c r="G9">
-        <v>0.5891258887494772</v>
+        <v>0.58996235900000005</v>
       </c>
       <c r="H9">
-        <v>0.8940192388122125</v>
+        <v>0.58912588899999996</v>
       </c>
       <c r="I9">
-        <v>0.6517774989544124</v>
+        <v>0.89401923900000002</v>
       </c>
       <c r="J9">
-        <v>0.5692179004600586</v>
+        <v>0.63111668799999998</v>
       </c>
       <c r="K9">
-        <v>0.59155165202844</v>
+        <v>0.56921790000000005</v>
       </c>
       <c r="L9">
-        <v>0.5206189878711837</v>
+        <v>0.59155165200000004</v>
       </c>
       <c r="M9">
-        <v>0.5235466332078628</v>
+        <v>0.52061898799999995</v>
       </c>
       <c r="N9">
-        <v>0.5591802593057298</v>
+        <v>0.52354663300000004</v>
       </c>
       <c r="O9">
-        <v>0.5895441237975743</v>
+        <v>0.55918025900000001</v>
       </c>
       <c r="P9">
-        <v>0.6342952739439565</v>
+        <v>0.589544124</v>
       </c>
       <c r="Q9">
-        <v>0.5713090757005437</v>
+        <v>0.63429527399999996</v>
       </c>
       <c r="R9">
-        <v>0.4568799665411962</v>
+        <v>0.57130907600000003</v>
       </c>
       <c r="S9">
-        <v>0.6198243412797992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>0.456879967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.5725293432488129</v>
+        <v>0.66244064151957704</v>
       </c>
       <c r="C10">
-        <v>0.5664366992205</v>
+        <v>0.57252934300000002</v>
       </c>
       <c r="D10">
-        <v>0.5450676462682555</v>
+        <v>0.56643669900000004</v>
       </c>
       <c r="E10">
-        <v>0.5922408386345309</v>
+        <v>0.54506764600000002</v>
       </c>
       <c r="F10">
-        <v>0.6112355523698594</v>
+        <v>0.59224083900000002</v>
       </c>
       <c r="G10">
-        <v>0.6711764178837022</v>
+        <v>0.61123555200000002</v>
       </c>
       <c r="H10">
-        <v>0.5743660962279366</v>
+        <v>0.67117641800000005</v>
       </c>
       <c r="I10">
-        <v>0.693083057073739</v>
+        <v>0.57436609599999999</v>
       </c>
       <c r="J10">
-        <v>0.6097123913627811</v>
+        <v>0.62248006499999997</v>
       </c>
       <c r="K10">
-        <v>0.5677806648149807</v>
+        <v>0.60971239099999996</v>
       </c>
       <c r="L10">
-        <v>0.5181435355254905</v>
+        <v>0.56778066500000002</v>
       </c>
       <c r="M10">
-        <v>0.5470387958068273</v>
+        <v>0.51814353599999996</v>
       </c>
       <c r="N10">
-        <v>0.4740166651733715</v>
+        <v>0.54703879600000005</v>
       </c>
       <c r="O10">
-        <v>0.5938535973479079</v>
+        <v>0.474016665</v>
       </c>
       <c r="P10">
-        <v>0.7003852701370845</v>
+        <v>0.59385359699999996</v>
       </c>
       <c r="Q10">
-        <v>0.5904040856554073</v>
+        <v>0.70038526999999995</v>
       </c>
       <c r="R10">
-        <v>0.4326673237165128</v>
+        <v>0.59040408600000005</v>
       </c>
       <c r="S10">
-        <v>0.662440641519577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>0.43266732400000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.4946112947262538</v>
+        <v>0.63407098721080613</v>
       </c>
       <c r="C11">
-        <v>0.4387124586865929</v>
+        <v>0.49461129500000001</v>
       </c>
       <c r="D11">
-        <v>0.4539445322603822</v>
+        <v>0.438712459</v>
       </c>
       <c r="E11">
-        <v>0.4364851271734445</v>
+        <v>0.45394453200000001</v>
       </c>
       <c r="F11">
-        <v>0.5663888489725535</v>
+        <v>0.43648512699999997</v>
       </c>
       <c r="G11">
-        <v>0.8009771518896394</v>
+        <v>0.56638884899999997</v>
       </c>
       <c r="H11">
-        <v>0.4737749676677683</v>
+        <v>0.80097715199999997</v>
       </c>
       <c r="I11">
-        <v>0.5781003017674954</v>
+        <v>0.47377496800000002</v>
       </c>
       <c r="J11">
-        <v>0.554318149159362</v>
+        <v>0.488360397</v>
       </c>
       <c r="K11">
-        <v>0.5592757580112085</v>
+        <v>0.55431814899999998</v>
       </c>
       <c r="L11">
-        <v>0.581477223739043</v>
+        <v>0.55927575799999996</v>
       </c>
       <c r="M11">
-        <v>0.6109354792355224</v>
+        <v>0.58147722400000001</v>
       </c>
       <c r="N11">
-        <v>0.5011495904583992</v>
+        <v>0.610935479</v>
       </c>
       <c r="O11">
-        <v>0.4719787325765196</v>
+        <v>0.50114959000000003</v>
       </c>
       <c r="P11">
-        <v>0.6088518465296738</v>
+        <v>0.47197873299999998</v>
       </c>
       <c r="Q11">
-        <v>0.5579824687455094</v>
+        <v>0.60885184699999995</v>
       </c>
       <c r="R11">
-        <v>0.4331800546055468</v>
+        <v>0.55798246900000004</v>
       </c>
       <c r="S11">
-        <v>0.6340709872108061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.43318005500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.7060957178841309</v>
+        <v>0.82894736842105265</v>
       </c>
       <c r="C12">
-        <v>0.8278589420654912</v>
+        <v>0.68641765700000001</v>
       </c>
       <c r="D12">
-        <v>0.7712342569269521</v>
+        <v>0.83786078100000005</v>
       </c>
       <c r="E12">
-        <v>0.8329974811083123</v>
+        <v>0.77478777600000004</v>
       </c>
       <c r="F12">
-        <v>0.7297229219143577</v>
+        <v>0.836842105</v>
       </c>
       <c r="G12">
-        <v>0.6760705289672544</v>
+        <v>0.69736842099999996</v>
       </c>
       <c r="H12">
-        <v>0.601360201511335</v>
+        <v>0.68743633299999996</v>
       </c>
       <c r="I12">
-        <v>0.9090176322418136</v>
+        <v>0.59533106999999996</v>
       </c>
       <c r="J12">
-        <v>0.7426700251889169</v>
+        <v>0.92860781000000003</v>
       </c>
       <c r="K12">
-        <v>0.6934508816120907</v>
+        <v>0.74966044099999996</v>
       </c>
       <c r="L12">
-        <v>0.6066498740554156</v>
+        <v>0.69719864200000004</v>
       </c>
       <c r="M12">
-        <v>0.5818639798488665</v>
+        <v>0.61663836999999999</v>
       </c>
       <c r="N12">
-        <v>0.6738539042821159</v>
+        <v>0.58225806499999999</v>
       </c>
       <c r="O12">
-        <v>0.6845340050377834</v>
+        <v>0.67292020399999997</v>
       </c>
       <c r="P12">
-        <v>0.7901259445843829</v>
+        <v>0.61315789499999995</v>
       </c>
       <c r="Q12">
-        <v>0.6717380352644836</v>
+        <v>0.77164685899999996</v>
       </c>
       <c r="R12">
-        <v>0.5247858942065491</v>
+        <v>0.66943972799999996</v>
       </c>
       <c r="S12">
-        <v>0.8479093198992443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>0.54592529700000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.8009227074511787</v>
+        <v>0.86329641200416551</v>
       </c>
       <c r="C13">
-        <v>0.8674714023889275</v>
+        <v>0.77695730399999996</v>
       </c>
       <c r="D13">
-        <v>0.7777918220312203</v>
+        <v>0.85141531800000003</v>
       </c>
       <c r="E13">
-        <v>0.8564747519433735</v>
+        <v>0.76521821499999998</v>
       </c>
       <c r="F13">
-        <v>0.8094545914175567</v>
+        <v>0.83072990599999996</v>
       </c>
       <c r="G13">
-        <v>0.7335524236870379</v>
+        <v>0.83058790100000002</v>
       </c>
       <c r="H13">
-        <v>0.5896479807874613</v>
+        <v>0.74069866500000003</v>
       </c>
       <c r="I13">
-        <v>0.8070530240788725</v>
+        <v>0.59736817200000003</v>
       </c>
       <c r="J13">
-        <v>0.9735195601339822</v>
+        <v>0.76261478699999996</v>
       </c>
       <c r="K13">
-        <v>0.8136257346900082</v>
+        <v>0.96757549899999995</v>
       </c>
       <c r="L13">
-        <v>0.6806547430954939</v>
+        <v>0.80199753900000004</v>
       </c>
       <c r="M13">
-        <v>0.7283700941667194</v>
+        <v>0.67745905500000003</v>
       </c>
       <c r="N13">
-        <v>0.808380206029198</v>
+        <v>0.72190665499999995</v>
       </c>
       <c r="O13">
-        <v>0.6688997029640397</v>
+        <v>0.78240083299999996</v>
       </c>
       <c r="P13">
-        <v>0.8402325728370094</v>
+        <v>0.6713055</v>
       </c>
       <c r="Q13">
-        <v>0.7315300511913038</v>
+        <v>0.84379437700000004</v>
       </c>
       <c r="R13">
-        <v>0.6125260696454529</v>
+        <v>0.71546909000000003</v>
       </c>
       <c r="S13">
-        <v>0.8760032863553056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>0.59339202899999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.698859440387298</v>
+        <v>0.70004923278903752</v>
       </c>
       <c r="C14">
-        <v>0.6964388282596209</v>
+        <v>0.69885944</v>
       </c>
       <c r="D14">
-        <v>0.6887256913104127</v>
+        <v>0.69643882800000001</v>
       </c>
       <c r="E14">
-        <v>0.6591860178879133</v>
+        <v>0.68872569100000003</v>
       </c>
       <c r="F14">
-        <v>0.672027570361861</v>
+        <v>0.65918601799999998</v>
       </c>
       <c r="G14">
-        <v>0.6639862148190695</v>
+        <v>0.67202757000000002</v>
       </c>
       <c r="H14">
-        <v>0.5811110199392796</v>
+        <v>0.66398621499999999</v>
       </c>
       <c r="I14">
-        <v>0.7226142610978912</v>
+        <v>0.58111102000000003</v>
       </c>
       <c r="J14">
-        <v>0.7240091901206204</v>
+        <v>0.69570033600000003</v>
       </c>
       <c r="K14">
-        <v>0.9456387954377615</v>
+        <v>0.72400918999999997</v>
       </c>
       <c r="L14">
-        <v>0.6292770985476327</v>
+        <v>0.94563879500000003</v>
       </c>
       <c r="M14">
-        <v>0.7147780421760893</v>
+        <v>0.62927709899999995</v>
       </c>
       <c r="N14">
-        <v>0.7069828505784853</v>
+        <v>0.71477804199999995</v>
       </c>
       <c r="O14">
-        <v>0.5761877410355296</v>
+        <v>0.70698285100000002</v>
       </c>
       <c r="P14">
-        <v>0.7304504800196931</v>
+        <v>0.57618774100000003</v>
       </c>
       <c r="Q14">
-        <v>0.6451136456880282</v>
+        <v>0.73045048000000001</v>
       </c>
       <c r="R14">
-        <v>0.5845573151719045</v>
+        <v>0.64511364599999999</v>
       </c>
       <c r="S14">
-        <v>0.7000492327890375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>0.58455731499999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0.5619050976521187</v>
+        <v>0.6005781569484594</v>
       </c>
       <c r="C15">
-        <v>0.5896143270112106</v>
+        <v>0.56190509799999999</v>
       </c>
       <c r="D15">
-        <v>0.5201297327786787</v>
+        <v>0.58961432700000005</v>
       </c>
       <c r="E15">
-        <v>0.5671578650497074</v>
+        <v>0.52012973299999998</v>
       </c>
       <c r="F15">
-        <v>0.5698018754847353</v>
+        <v>0.56715786499999998</v>
       </c>
       <c r="G15">
-        <v>0.5719875907776916</v>
+        <v>0.56980187500000001</v>
       </c>
       <c r="H15">
-        <v>0.5043361771134457</v>
+        <v>0.57198759099999996</v>
       </c>
       <c r="I15">
-        <v>0.5734682366213072</v>
+        <v>0.504336177</v>
       </c>
       <c r="J15">
-        <v>0.585383910315166</v>
+        <v>0.56870901799999996</v>
       </c>
       <c r="K15">
-        <v>0.5846435873933582</v>
+        <v>0.58538391000000001</v>
       </c>
       <c r="L15">
-        <v>0.9540999788479165</v>
+        <v>0.58464358699999996</v>
       </c>
       <c r="M15">
-        <v>0.6169357681731651</v>
+        <v>0.95409997899999999</v>
       </c>
       <c r="N15">
-        <v>0.5732214623140379</v>
+        <v>0.61693576800000005</v>
       </c>
       <c r="O15">
-        <v>0.4910456179933724</v>
+        <v>0.57322146200000001</v>
       </c>
       <c r="P15">
-        <v>0.5911654797997603</v>
+        <v>0.49104561800000002</v>
       </c>
       <c r="Q15">
-        <v>0.5274977085242897</v>
+        <v>0.59116548000000002</v>
       </c>
       <c r="R15">
-        <v>0.4047098639215963</v>
+        <v>0.52749770900000004</v>
       </c>
       <c r="S15">
-        <v>0.6005781569484594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>0.40470986399999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0.4362152244729846</v>
+        <v>0.49463628533395981</v>
       </c>
       <c r="C16">
-        <v>0.3221627288725802</v>
+        <v>0.39855923599999998</v>
       </c>
       <c r="D16">
-        <v>0.2988355112891751</v>
+        <v>0.30561428200000001</v>
       </c>
       <c r="E16">
-        <v>0.4429175871494365</v>
+        <v>0.26622817300000001</v>
       </c>
       <c r="F16">
-        <v>0.4474107911783428</v>
+        <v>0.41288857600000001</v>
       </c>
       <c r="G16">
-        <v>0.5619500505485453</v>
+        <v>0.46049643699999998</v>
       </c>
       <c r="H16">
-        <v>0.3615905942262328</v>
+        <v>0.538955446</v>
       </c>
       <c r="I16">
-        <v>0.4402965514659078</v>
+        <v>0.39942056199999998</v>
       </c>
       <c r="J16">
-        <v>0.4651963904594301</v>
+        <v>0.35345705100000002</v>
       </c>
       <c r="K16">
-        <v>0.5471224772531545</v>
+        <v>0.46253230000000001</v>
       </c>
       <c r="L16">
-        <v>0.582132025311716</v>
+        <v>0.53699788599999998</v>
       </c>
       <c r="M16">
-        <v>0.9370951435953121</v>
+        <v>0.58656330700000003</v>
       </c>
       <c r="N16">
-        <v>0.5462612798142809</v>
+        <v>0.97917156100000002</v>
       </c>
       <c r="O16">
-        <v>0.3503201407870596</v>
+        <v>0.53597995499999995</v>
       </c>
       <c r="P16">
-        <v>0.4708503388624705</v>
+        <v>0.35557121600000002</v>
       </c>
       <c r="Q16">
-        <v>0.469390047553076</v>
+        <v>0.477879571</v>
       </c>
       <c r="R16">
-        <v>0.3926685887595013</v>
+        <v>0.48790227899999999</v>
       </c>
       <c r="S16">
-        <v>0.4937656794098925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>0.39902905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>0.5946947532670177</v>
+        <v>0.71601326311683244</v>
       </c>
       <c r="C17">
-        <v>0.7019699629412912</v>
+        <v>0.59469475299999996</v>
       </c>
       <c r="D17">
-        <v>0.6583772186463819</v>
+        <v>0.70196996300000003</v>
       </c>
       <c r="E17">
-        <v>0.6779793251414082</v>
+        <v>0.65837721900000001</v>
       </c>
       <c r="F17">
-        <v>0.7003120733372342</v>
+        <v>0.67797932500000002</v>
       </c>
       <c r="G17">
-        <v>0.6958260191144919</v>
+        <v>0.70031207299999998</v>
       </c>
       <c r="H17">
-        <v>0.647844743514726</v>
+        <v>0.69582601899999996</v>
       </c>
       <c r="I17">
-        <v>0.686268773161693</v>
+        <v>0.64784474400000003</v>
       </c>
       <c r="J17">
-        <v>0.7268383070021455</v>
+        <v>0.68938950700000001</v>
       </c>
       <c r="K17">
-        <v>0.7429295884532865</v>
+        <v>0.72683830699999996</v>
       </c>
       <c r="L17">
-        <v>0.618587868149015</v>
+        <v>0.74292958799999997</v>
       </c>
       <c r="M17">
-        <v>0.6774917105519798</v>
+        <v>0.61858786799999999</v>
       </c>
       <c r="N17">
-        <v>0.9325141408230935</v>
+        <v>0.67749171100000005</v>
       </c>
       <c r="O17">
-        <v>0.5807489760093622</v>
+        <v>0.93251414099999996</v>
       </c>
       <c r="P17">
-        <v>0.7039204212990052</v>
+        <v>0.58074897599999997</v>
       </c>
       <c r="Q17">
-        <v>0.6671542812560952</v>
+        <v>0.70392042099999996</v>
       </c>
       <c r="R17">
-        <v>0.5224302711137118</v>
+        <v>0.66715428099999996</v>
       </c>
       <c r="S17">
-        <v>0.7160132631168324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>0.52243027099999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.597592659584964</v>
+        <v>0.63274903805044891</v>
       </c>
       <c r="C18">
-        <v>0.7013516624461472</v>
+        <v>0.59759266</v>
       </c>
       <c r="D18">
-        <v>0.6847107573913901</v>
+        <v>0.70135166199999999</v>
       </c>
       <c r="E18">
-        <v>0.6694182260663663</v>
+        <v>0.68471075699999995</v>
       </c>
       <c r="F18">
-        <v>0.6814878153056861</v>
+        <v>0.66941822600000001</v>
       </c>
       <c r="G18">
-        <v>0.4998848949255106</v>
+        <v>0.681487815</v>
       </c>
       <c r="H18">
-        <v>0.5464860065116585</v>
+        <v>0.499884895</v>
       </c>
       <c r="I18">
-        <v>0.6822442200809025</v>
+        <v>0.54648600700000005</v>
       </c>
       <c r="J18">
-        <v>0.5454993915874634</v>
+        <v>0.62465879599999996</v>
       </c>
       <c r="K18">
-        <v>0.5330680435426053</v>
+        <v>0.54549939199999997</v>
       </c>
       <c r="L18">
-        <v>0.4639063373565298</v>
+        <v>0.53306804399999996</v>
       </c>
       <c r="M18">
-        <v>0.4335514848554609</v>
+        <v>0.463906337</v>
       </c>
       <c r="N18">
-        <v>0.5400401223402506</v>
+        <v>0.43355148500000001</v>
       </c>
       <c r="O18">
-        <v>0.971289505705923</v>
+        <v>0.54004012199999996</v>
       </c>
       <c r="P18">
-        <v>0.8070510079915809</v>
+        <v>0.97128950599999997</v>
       </c>
       <c r="Q18">
-        <v>0.6514289472818758</v>
+        <v>0.80705100799999996</v>
       </c>
       <c r="R18">
-        <v>0.4862367218074786</v>
+        <v>0.65142894699999998</v>
       </c>
       <c r="S18">
-        <v>0.6327490380504489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>0.48623672200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.550967827178437</v>
+        <v>0.66353967100482258</v>
       </c>
       <c r="C19">
-        <v>0.6453722666314329</v>
+        <v>0.55096782700000002</v>
       </c>
       <c r="D19">
-        <v>0.5444936248926472</v>
+        <v>0.64537226700000005</v>
       </c>
       <c r="E19">
-        <v>0.5448239413357997</v>
+        <v>0.54449362499999998</v>
       </c>
       <c r="F19">
-        <v>0.6591134306665786</v>
+        <v>0.54482394099999998</v>
       </c>
       <c r="G19">
-        <v>0.5167470436678337</v>
+        <v>0.65911343099999997</v>
       </c>
       <c r="H19">
-        <v>0.4899253484838475</v>
+        <v>0.51674704400000004</v>
       </c>
       <c r="I19">
-        <v>0.6521767853603753</v>
+        <v>0.48992534799999998</v>
       </c>
       <c r="J19">
-        <v>0.5157560943383762</v>
+        <v>0.62357138099999998</v>
       </c>
       <c r="K19">
-        <v>0.4774393869326815</v>
+        <v>0.515756094</v>
       </c>
       <c r="L19">
-        <v>0.4611878179295765</v>
+        <v>0.47743938699999999</v>
       </c>
       <c r="M19">
-        <v>0.4277597938825395</v>
+        <v>0.46118781800000003</v>
       </c>
       <c r="N19">
-        <v>0.4889343991543899</v>
+        <v>0.42775979400000003</v>
       </c>
       <c r="O19">
-        <v>0.678536037523948</v>
+        <v>0.48893439900000002</v>
       </c>
       <c r="P19">
-        <v>0.9724516086410782</v>
+        <v>0.67853603799999995</v>
       </c>
       <c r="Q19">
-        <v>0.6459668362291074</v>
+        <v>0.97245160900000005</v>
       </c>
       <c r="R19">
-        <v>0.4781660831076171</v>
+        <v>0.64596683600000004</v>
       </c>
       <c r="S19">
-        <v>0.6635396710048226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>0.47816608300000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>0.2361424064894097</v>
+        <v>0.2447048219918882</v>
       </c>
       <c r="C20">
-        <v>0.3411446597566472</v>
+        <v>0.236142406</v>
       </c>
       <c r="D20">
-        <v>0.3267237494366832</v>
+        <v>0.34114465999999999</v>
       </c>
       <c r="E20">
-        <v>0.07165389815232087</v>
+        <v>0.32672374900000001</v>
       </c>
       <c r="F20">
-        <v>0.3970256872465074</v>
+        <v>7.1653897999999994E-2</v>
       </c>
       <c r="G20">
-        <v>0.2429022082018927</v>
+        <v>0.39702568700000002</v>
       </c>
       <c r="H20">
-        <v>0.3181613339342046</v>
+        <v>0.24290220800000001</v>
       </c>
       <c r="I20">
-        <v>0.3826047769265435</v>
+        <v>0.31816133400000002</v>
       </c>
       <c r="J20">
-        <v>0.2852636322667869</v>
+        <v>0.28841820600000001</v>
       </c>
       <c r="K20">
-        <v>0.3483551149166291</v>
+        <v>0.28526363199999999</v>
       </c>
       <c r="L20">
-        <v>0.2924740874267688</v>
+        <v>0.34835511499999999</v>
       </c>
       <c r="M20">
-        <v>0.2748986029743127</v>
+        <v>0.29247408699999999</v>
       </c>
       <c r="N20">
-        <v>0.3497070752591258</v>
+        <v>0.27489860300000002</v>
       </c>
       <c r="O20">
-        <v>0.2875168995042812</v>
+        <v>0.34970707499999998</v>
       </c>
       <c r="P20">
-        <v>0.3546642631816133</v>
+        <v>0.28751690000000002</v>
       </c>
       <c r="Q20">
-        <v>0.829202343397927</v>
+        <v>0.35466426299999998</v>
       </c>
       <c r="R20">
-        <v>0.3465525011266336</v>
+        <v>0.82920234299999995</v>
       </c>
       <c r="S20">
-        <v>0.2447048219918882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>0.34655250100000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>0.1422378759143864</v>
+        <v>0.17438815135916191</v>
       </c>
       <c r="C21">
-        <v>0.3103043438995756</v>
+        <v>0.14223787600000001</v>
       </c>
       <c r="D21">
-        <v>0.2145759956651314</v>
+        <v>0.31030434400000001</v>
       </c>
       <c r="E21">
-        <v>0.1283301724916464</v>
+        <v>0.21457599599999999</v>
       </c>
       <c r="F21">
-        <v>0.2441975977603179</v>
+        <v>0.12833017199999999</v>
       </c>
       <c r="G21">
-        <v>0.2059965682290256</v>
+        <v>0.24419759799999999</v>
       </c>
       <c r="H21">
-        <v>0.3135554953490473</v>
+        <v>0.20599656799999999</v>
       </c>
       <c r="I21">
-        <v>0.3171678858484602</v>
+        <v>0.31355549500000002</v>
       </c>
       <c r="J21">
-        <v>0.2586471597579698</v>
+        <v>0.20455161199999999</v>
       </c>
       <c r="K21">
-        <v>0.3611487401788133</v>
+        <v>0.25864715999999999</v>
       </c>
       <c r="L21">
-        <v>0.180258285920708</v>
+        <v>0.36114874000000002</v>
       </c>
       <c r="M21">
-        <v>0.309310936512237</v>
+        <v>0.18025828599999999</v>
       </c>
       <c r="N21">
-        <v>0.3182516029982841</v>
+        <v>0.30931093700000001</v>
       </c>
       <c r="O21">
-        <v>0.1477467714259912</v>
+        <v>0.31825160299999999</v>
       </c>
       <c r="P21">
-        <v>0.219181793551883</v>
+        <v>0.147746771</v>
       </c>
       <c r="Q21">
-        <v>0.3744242752641561</v>
+        <v>0.21918179400000001</v>
       </c>
       <c r="R21">
-        <v>0.9274812607242843</v>
+        <v>0.37442427499999997</v>
       </c>
       <c r="S21">
-        <v>0.1743881513591619</v>
+        <v>0.92748126099999995</v>
       </c>
     </row>
   </sheetData>
